--- a/docs/画面項目定義書/仮想マシンダッシュボード.xlsx
+++ b/docs/画面項目定義書/仮想マシンダッシュボード.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fittu\OneDrive\ドキュメント\K022C0084\KCI\Kamata-Cloud-Infrastructure\docs\画面項目定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9196A992-9519-46AB-9C44-B1A194D1A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F9B87B-8606-4D8C-BF93-EAD2DED42853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
+    <sheet name="仮想マシンダッシュボード" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>日本工学院</t>
   </si>
@@ -66,6 +66,297 @@
   </si>
   <si>
     <t>処理</t>
+  </si>
+  <si>
+    <t>仮想マシンダッシュボード</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>virtual_machine_dashboard.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想マシン作成ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想マシン作成</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想マシン作成モーダルを表示</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想マシン名</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>所属ネットワーク</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想マシンオブジェクトより</t>
+  </si>
+  <si>
+    <t>仮想マシンオブジェクトより</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想マシンオブジェクトを取得し、繰り返し表示</t>
+  </si>
+  <si>
+    <t>仮想マシンオブジェクトを取得し、繰り返し表示</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時編集ボタン、一時停止ボタン、削除ボタンを表示</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>操作ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>編集ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一時停止ボタン</t>
+    <rPh sb="0" eb="4">
+      <t>イチジテイシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時仮想マシン詳細/編集画面へ遷移</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時確認ポップアップを表示</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>サイドバー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ref(利用者サイドバー)</t>
+    <rPh sb="4" eb="7">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -384,10 +675,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -400,10 +687,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -479,6 +762,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1018,16 +1309,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.625" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
@@ -1036,282 +1327,382 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="28"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="28"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="37"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="39"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="36" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="36" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="40"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="36" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="36" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="36" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="36" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="36" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
